--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251284</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>297.0909090909091</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16340</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,75 +576,73 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251706</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>50.79365079365079</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3200</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -652,54 +650,54 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -708,72 +706,70 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251391</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>91.640625</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5865</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -786,7 +782,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -804,50 +800,50 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251395</v>
+        <v>251840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>5714</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -860,13 +856,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -874,54 +870,54 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251371</v>
+        <v>251229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -930,18 +926,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -950,54 +946,54 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39666</v>
+        <v>39723</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251453</v>
+        <v>251225</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>78.125</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1006,19 +1002,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1026,54 +1020,54 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39742</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251227</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1082,17 +1076,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1100,54 +1094,54 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>12073</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1156,17 +1150,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1174,54 +1168,54 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251164</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>10000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1230,14 +1224,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
         <v>39749</v>
@@ -1252,50 +1246,50 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>251456</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1304,17 +1298,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1322,128 +1316,126 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251227</v>
+        <v>251416</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:37:35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:52:35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:52:35</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:52:35</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>39746</v>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251421</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>81.9375</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5244</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1452,40 +1444,36 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251782</v>
+        <v>251455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1493,33 +1481,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>188.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12073</v>
+        <v>5297</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1528,17 +1516,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1546,54 +1534,54 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251050</v>
+        <v>251391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1602,17 +1590,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1620,54 +1608,54 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251054</v>
+        <v>251395</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1676,17 +1664,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1694,54 +1682,54 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251081</v>
+        <v>251371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1750,18 +1738,18 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1770,54 +1758,54 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39750</v>
+        <v>39666</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251547</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>184.9154929577465</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13129</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1830,7 +1818,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1848,50 +1836,50 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250759</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>118.2816901408451</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8398</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1900,17 +1888,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1918,54 +1906,54 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251229</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>263.9295774647887</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18739</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1974,19 +1962,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1994,54 +1980,54 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251742</v>
+        <v>251477</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>134.8524590163935</v>
+        <v>468.734375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8226</v>
+        <v>29999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2050,17 +2036,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2068,73 +2054,75 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251840</v>
+        <v>251706</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>93.67213114754098</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5714</v>
+        <v>3200</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39758</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2142,54 +2130,54 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39758</v>
+        <v>39764</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251456</v>
+        <v>251050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D24" t="n">
-        <v>147.5245901639344</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2198,17 +2186,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2216,54 +2204,54 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251416</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>183.9672131147541</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:10:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2272,70 +2260,72 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251651</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>767.7049180327868</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>46830</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2344,70 +2334,74 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251477</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>422.5211267605634</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>29999</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2416,17 +2410,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2434,237 +2428,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.471889671365741</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>251268</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>47</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>2025-04-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>-24.32430555555555</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>251164</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>47</v>
-      </c>
-      <c r="D29" t="n">
-        <v>204.0816326530612</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:34:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:34:00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:58:04</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>6</v>
-      </c>
-      <c r="M29" t="n">
-        <v>70</v>
-      </c>
-      <c r="N29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>2025-04-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="n">
-        <v>-1.498667800451389</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>250894</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>42</v>
-      </c>
-      <c r="D30" t="n">
-        <v>903.3061224489796</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:58:04</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:40:04</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:40:04</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:43:23</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>44262</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>76</v>
-      </c>
-      <c r="N30" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,72 +558,70 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -632,17 +630,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -650,54 +648,54 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -706,36 +704,38 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -743,33 +743,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -778,17 +778,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -796,7 +798,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -804,46 +806,46 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251840</v>
+        <v>251225</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -852,17 +854,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -870,54 +872,54 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251229</v>
+        <v>251227</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -926,19 +928,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39746</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -946,20 +946,20 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39723</v>
+        <v>39746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251225</v>
+        <v>251782</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -967,33 +967,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1002,17 +1002,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1020,50 +1020,50 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251227</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1094,54 +1094,54 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1150,17 +1150,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1168,54 +1168,54 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251164</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>204.0816326530612</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>10000</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1224,17 +1224,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39749</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1242,54 +1244,54 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251456</v>
+        <v>251284</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D12" t="n">
-        <v>183.6530612244898</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8999</v>
+        <v>16340</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1298,17 +1300,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1316,54 +1318,54 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>229.0204081632653</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1376,66 +1378,68 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1444,70 +1448,72 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1516,38 +1522,36 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251391</v>
+        <v>251455</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1555,33 +1559,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>91.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>2025-05-07 07:00:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-05-07 07:19:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-05-07 07:19:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>2025-05-07 08:41:45</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-05-07 08:58:45</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-05-07 08:58:45</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:30:24</t>
-        </is>
-      </c>
       <c r="I16" t="n">
-        <v>5865</v>
+        <v>5297</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1594,7 +1598,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1612,16 +1616,16 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251395</v>
+        <v>251391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1632,30 +1636,30 @@
         <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>91.640625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2025-05-07 08:41:45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-07 08:58:45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-05-07 08:58:45</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>2025-05-07 10:30:24</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:47:24</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:47:24</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:22:45</t>
-        </is>
-      </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>5865</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1668,7 +1672,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1690,12 +1694,12 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251371</v>
+        <v>251395</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1703,33 +1707,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>2025-05-07 10:30:24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-07 10:47:24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-07 10:47:24</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>2025-05-07 11:22:45</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1742,15 +1746,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1758,20 +1760,20 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1782,30 +1784,30 @@
         <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>2025-05-07 11:22:45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2025-05-07 11:41:45</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-05-07 12:00:45</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1818,13 +1820,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1832,20 +1836,20 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1856,30 +1860,30 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>2025-05-07 11:41:45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:00:45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:00:45</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>2025-05-07 12:36:05</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-05-07 12:55:05</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-05-07 12:55:05</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:22:00</t>
-        </is>
-      </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1892,7 +1896,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1910,16 +1914,16 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251548</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1927,33 +1931,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>206.90625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>2025-05-07 12:36:05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:55:05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:55:05</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>2025-05-08 08:22:00</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:54:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:54:00</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:43:28</t>
-        </is>
-      </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>13242</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1962,14 +1966,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -1984,16 +1988,16 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251477</v>
+        <v>250923</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2001,33 +2005,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>468.734375</v>
+        <v>109.46875</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>2025-05-08 08:22:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:54:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:54:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>2025-05-08 10:43:28</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:02:28</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:02:28</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:51:12</t>
-        </is>
-      </c>
       <c r="I22" t="n">
-        <v>29999</v>
+        <v>7006</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2036,17 +2040,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2054,75 +2058,73 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251706</v>
+        <v>251477</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>50.79365079365079</v>
+        <v>468.734375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3200</v>
+        <v>29999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39760</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2130,73 +2132,75 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39764</v>
+        <v>39760</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251050</v>
+        <v>251706</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2204,54 +2208,54 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251054</v>
+        <v>251164</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2260,17 +2264,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2278,54 +2282,54 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251081</v>
+        <v>251456</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
-        <v>42.42253521126761</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3012</v>
+        <v>8999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2334,19 +2338,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N26" t="n">
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2354,54 +2356,54 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39750</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2410,33 +2412,31 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,36 +558,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251742</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -595,33 +600,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>134.8524590163935</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8226</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -634,13 +639,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -648,20 +653,23 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -672,30 +680,30 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -704,17 +712,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39758</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -722,54 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -778,19 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -798,54 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251225</v>
+        <v>251391</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -854,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -872,54 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251227</v>
+        <v>251395</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -928,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -946,54 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.4741319444444445</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251782</v>
+        <v>251371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1002,17 +1022,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1020,54 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39754</v>
+        <v>39666</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251396</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1076,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1094,54 +1119,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251548</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1150,17 +1178,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1168,54 +1196,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>250923</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>109.46875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>7006</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1224,19 +1255,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1244,54 +1273,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251284</v>
+        <v>251477</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>297.0909090909091</v>
+        <v>468.734375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>16340</v>
+        <v>29999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1300,17 +1332,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1318,54 +1350,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251050</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1374,17 +1409,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1392,54 +1427,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251054</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1448,14 +1486,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
         <v>39747</v>
@@ -1470,50 +1508,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251081</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>3012</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1522,70 +1563,77 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>82.765625</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1594,72 +1642,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D17" t="n">
-        <v>91.640625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1668,17 +1717,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1686,73 +1735,78 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251395</v>
+        <v>251706</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>35.34375</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2262</v>
+        <v>3200</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1760,54 +1814,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251371</v>
+        <v>251547</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1825,10 +1882,8 @@
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1836,54 +1891,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251396</v>
+        <v>250759</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>35.34375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2262</v>
+        <v>8398</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1892,17 +1950,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1910,54 +1968,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251548</v>
+        <v>250894</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>206.90625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>13242</v>
+        <v>44262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1966,72 +2027,73 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250923</v>
+        <v>251164</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>109.46875</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>7006</v>
+        <v>10000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2040,14 +2102,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
         <v>39749</v>
@@ -2062,50 +2124,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251477</v>
+        <v>251456</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>468.734375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>29999</v>
+        <v>8999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2114,17 +2179,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2132,130 +2197,132 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251706</v>
+        <v>251416</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
+        <v>40</v>
+      </c>
+      <c r="D24" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
+      <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39764</v>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251164</v>
+        <v>251225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2264,17 +2331,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2282,54 +2349,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251456</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2338,14 +2408,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
         <v>39746</v>
@@ -2360,50 +2430,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>229.0204081632653</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2412,31 +2485,36 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -748,41 +748,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>82.765625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -813,53 +813,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251391</v>
+        <v>251456</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>91.640625</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5865</v>
+        <v>8999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251395</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34375</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2262</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,21 +949,19 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -971,45 +969,45 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251371</v>
+        <v>251050</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1022,19 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251054</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251081</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>3012</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,17 +1174,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39749</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,57 +1194,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1259,13 +1257,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,57 +1271,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,17 +1330,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,15 +1348,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1366,41 +1364,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251050</v>
+        <v>251782</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,17 +1407,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1427,57 +1425,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251054</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,11 +1484,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1508,53 +1506,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251081</v>
+        <v>251651</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>42.42253521126761</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3012</v>
+        <v>46830</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,77 +1561,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>251547</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>13129</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1642,73 +1636,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>250759</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>8398</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1717,14 +1713,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
         <v>39747</v>
@@ -1739,11 +1735,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1751,139 +1747,137 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>250894</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:07:11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:47:36</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
+      <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>39764</v>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251547</v>
+        <v>251706</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>184.9154929577465</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13129</v>
+        <v>3200</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1891,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1907,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250759</v>
+        <v>251455</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>118.2816901408451</v>
+        <v>82.765625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8398</v>
+        <v>5297</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1950,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1968,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250894</v>
+        <v>251391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>623.4084507042254</v>
+        <v>91.640625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>44262</v>
+        <v>5865</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2027,73 +2021,75 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251164</v>
+        <v>251395</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>204.0816326530612</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>10000</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2124,53 +2120,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251456</v>
+        <v>251371</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2183,13 +2179,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39746</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2197,57 +2195,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39746</v>
+        <v>39666</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251416</v>
+        <v>251396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>229.0204081632653</v>
+        <v>35.34375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11222</v>
+        <v>2262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2260,69 +2258,71 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251225</v>
+        <v>251548</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2331,17 +2331,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2349,57 +2349,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>250923</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,57 +2426,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251782</v>
+        <v>251477</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>170.0422535211268</v>
+        <v>468.734375</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12073</v>
+        <v>29999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39754</v>
+        <v>39760</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,15 +2503,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39754</v>
+        <v>39760</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,11 +580,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,15 +653,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -669,41 +669,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,54 +712,50 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251164</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>204.0816326530612</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +764,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,7 +791,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -813,53 +809,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251456</v>
+        <v>251840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>183.6530612244898</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8999</v>
+        <v>5714</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,13 +868,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39746</v>
+        <v>39758</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,7 +882,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39746</v>
+        <v>39758</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -894,7 +890,7 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -902,41 +898,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>229.0204081632653</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>18739</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,73 +941,77 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251050</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251054</v>
+        <v>251456</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251081</v>
+        <v>251416</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>42.42253521126761</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3012</v>
+        <v>11222</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,27 +1174,23 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1202,7 +1198,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1210,37 +1206,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251225</v>
+        <v>251050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1253,14 +1249,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
         <v>39747</v>
@@ -1275,49 +1271,49 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251227</v>
+        <v>251054</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1330,17 +1326,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1348,57 +1344,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251782</v>
+        <v>251081</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>170.0422535211268</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12073</v>
+        <v>3012</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,17 +1403,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1425,34 +1423,34 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39754</v>
+        <v>39750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1461,21 +1459,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,25 +1482,23 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1510,49 +1506,49 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251651</v>
+        <v>251225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,73 +1557,75 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251547</v>
+        <v>251227</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,17 +1634,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1654,57 +1652,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250759</v>
+        <v>251782</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>118.2816901408451</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8398</v>
+        <v>12073</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1713,17 +1711,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1731,15 +1729,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1747,137 +1745,139 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250894</v>
+        <v>251706</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>623.4084507042254</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>44262</v>
+        <v>3200</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251706</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>50.79365079365079</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3200</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1885,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1909,33 +1909,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>82.765625</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1966,11 +1966,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251391</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1989,30 +1989,30 @@
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>91.640625</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5865</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S21" t="n">
         <v>7</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251395</v>
+        <v>251371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2063,33 +2063,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,13 +2102,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39749</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,15 +2118,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S22" t="n">
         <v>7</v>
@@ -2132,7 +2134,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2143,30 +2145,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2179,15 +2181,13 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N23" t="n">
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2195,15 +2195,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251396</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2222,30 +2222,30 @@
         <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2276,11 +2276,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S24" t="n">
         <v>7</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251548</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2296,33 +2296,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>206.90625</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13242</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2331,14 +2331,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
         <v>39749</v>
@@ -2353,19 +2353,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>250923</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2373,33 +2373,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>109.46875</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>7006</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,57 +2426,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251477</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>468.734375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>29999</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,17 +2485,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,15 +2503,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,11 +580,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,15 +653,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -669,41 +669,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,50 +712,54 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -764,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -809,11 +813,11 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S5" t="n">
         <v>7</v>
@@ -821,41 +825,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -864,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -882,15 +886,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -898,41 +902,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>307.1967213114754</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -941,77 +945,73 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251050</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251456</v>
+        <v>251054</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251416</v>
+        <v>251081</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
-        <v>229.0204081632653</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>11222</v>
+        <v>3012</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,23 +1174,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1198,7 +1202,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1206,114 +1210,112 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251050</v>
+        <v>251651</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
+        <v>767.7049180327868</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:16:42</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>38</v>
-      </c>
-      <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>39747</v>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251054</v>
+        <v>251227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1326,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1344,57 +1346,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-2.513194444444444</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251081</v>
+        <v>251225</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1403,19 +1408,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,57 +1426,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
+        <v>-0.5236111111111111</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>-0.5236111111111111</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>251782</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>12073</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1482,92 +1488,99 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251706</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39747</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1575,57 +1588,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251227</v>
+        <v>251164</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1634,75 +1647,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>70</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S16" t="n">
         <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>76</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251782</v>
+        <v>251456</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0422535211268</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12073</v>
+        <v>8999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,17 +1724,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1729,15 +1742,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1745,81 +1758,77 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>251416</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
+      <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>39764</v>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,41 +748,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251547</v>
+        <v>251050</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="D5" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>251054</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,14 +868,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
         <v>39747</v>
@@ -890,53 +890,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250894</v>
+        <v>251081</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>623.4084507042254</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>44262</v>
+        <v>3012</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,69 +945,73 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251050</v>
+        <v>251225</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1020,14 +1024,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
         <v>39747</v>
@@ -1042,49 +1046,49 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251054</v>
+        <v>251227</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1097,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1119,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251081</v>
+        <v>251782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>42.42253521126761</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3012</v>
+        <v>12073</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,19 +1178,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39754</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1194,34 +1196,34 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39750</v>
+        <v>39754</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D11" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1230,21 +1232,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,23 +1255,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1277,49 +1281,49 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251227</v>
+        <v>251651</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,78 +1332,73 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-2.513194444444444</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251225</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1408,17 +1407,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1426,60 +1425,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.5236111111111111</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-0.5236111111111111</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251782</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>170.0422535211268</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>12073</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1484,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,100 +1502,93 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="T14" t="n">
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251706</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:07:11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:47:36</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
+      <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>39764</v>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2451,79 +2440,81 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,11 +580,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,15 +653,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -669,41 +669,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,77 +712,73 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251050</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +787,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +805,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251054</v>
+        <v>251840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +864,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +882,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251081</v>
+        <v>251229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>42.42253521126761</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3012</v>
+        <v>18739</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,18 +941,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -965,57 +961,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39750</v>
+        <v>39723</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251225</v>
+        <v>251651</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,71 +1020,69 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251227</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1101,17 +1095,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,57 +1113,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,17 +1172,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,57 +1190,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251284</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>297.0909090909091</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16340</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,17 +1249,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39747</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251651</v>
+        <v>251225</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,73 +1328,75 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251227</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,17 +1405,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1425,57 +1423,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251782</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>12073</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,17 +1482,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1502,15 +1500,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1518,77 +1516,81 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251706</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>3200</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
         <v>0</v>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2440,62 +2442,60 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251706</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>50.79365079365079</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,18 +2503,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,75 +558,73 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +633,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +651,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,39 +710,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -752,33 +752,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -787,17 +787,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -805,7 +807,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -813,49 +815,49 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251840</v>
+        <v>251455</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>93.67213114754098</v>
+        <v>82.765625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5714</v>
+        <v>5297</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,13 +870,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -882,57 +884,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251229</v>
+        <v>251391</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>307.1967213114754</v>
+        <v>91.640625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>5865</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -941,19 +943,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N7" t="n">
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -961,57 +961,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251651</v>
+        <v>251395</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>767.7049180327868</v>
+        <v>35.34375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>46830</v>
+        <v>2262</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,69 +1020,71 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1095,17 +1097,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39747</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1113,57 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1172,17 +1176,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1190,57 +1194,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>251548</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>206.90625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>13242</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1249,19 +1253,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1271,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>250923</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,13 +1334,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1348,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251227</v>
+        <v>251477</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,17 +1407,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,15 +1425,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1439,41 +1441,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251782</v>
+        <v>251050</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D14" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1482,17 +1484,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,78 +1502,76 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251706</v>
+        <v>251054</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>35</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>50.79365079365079</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1579,57 +1579,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251164</v>
+        <v>251081</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D16" t="n">
-        <v>204.0816326530612</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10000</v>
+        <v>3012</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1638,17 +1638,19 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39749</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1656,57 +1658,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251456</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D17" t="n">
-        <v>183.6530612244898</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8999</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1715,17 +1717,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1733,15 +1735,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1749,116 +1751,120 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251416</v>
+        <v>251706</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>229.0204081632653</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>11222</v>
+        <v>3200</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251547</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>13129</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1889,11 +1895,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1901,41 +1907,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>250759</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>8398</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1944,17 +1950,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1968,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>250894</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>44262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,75 +2027,73 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251164</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,15 +2106,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2118,57 +2120,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>251456</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>8999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2181,13 +2183,13 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2195,57 +2197,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>251416</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>11222</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2258,71 +2260,69 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2335,13 +2335,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2349,57 +2349,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,15 +2426,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2442,41 +2442,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,17 +2485,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,15 +2503,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,116 +515,120 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251742</v>
+        <v>251081</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="D3" t="n">
-        <v>134.8524590163935</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8226</v>
+        <v>3012</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -633,17 +637,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -651,57 +657,60 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S3" t="n">
-        <v>7</v>
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>-16.40932120501157</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251054</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -710,17 +719,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -728,57 +737,60 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251050</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -787,19 +799,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -807,57 +817,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251455</v>
+        <v>251284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D6" t="n">
-        <v>82.765625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5297</v>
+        <v>16340</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,17 +879,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -884,57 +897,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251391</v>
+        <v>251742</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>91.640625</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5865</v>
+        <v>8226</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,7 +960,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -965,11 +978,11 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -977,41 +990,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251395</v>
+        <v>251840</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>35.34375</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2262</v>
+        <v>5714</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,13 +1037,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1051,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251371</v>
+        <v>251229</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,18 +1110,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1117,57 +1130,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39666</v>
+        <v>39723</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251396</v>
+        <v>251782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>35.34375</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2262</v>
+        <v>12073</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,17 +1189,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1194,57 +1207,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-0.2965571204976852</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251548</v>
+        <v>251227</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,17 +1269,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,57 +1287,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S11" t="n">
-        <v>7</v>
+        <v>-3.308362676053241</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>-3.308362676053241</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250923</v>
+        <v>251225</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 07:39:02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 07:39:02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 07:39:02</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,13 +1353,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1348,57 +1367,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
+        <v>-1.318779342719907</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-1.318779342719907</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251477</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>468.734375</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 07:21:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 07:21:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 09:44:24</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>29999</v>
+        <v>44262</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,75 +1429,76 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251050</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 09:44:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 10:01:24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 10:01:24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:59:41</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,14 +1507,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
         <v>39747</v>
@@ -1506,53 +1529,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
+        <v>-1.499784820034722</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-1.499784820034722</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251054</v>
+        <v>251547</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:59:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 12:29:41</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 12:29:41</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 07:34:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,17 +1587,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1579,57 +1605,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
+        <v>-5.315698356805556</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-5.315698356805556</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251081</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>42.42253521126761</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3012</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1638,77 +1667,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>251371</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1717,17 +1742,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39747</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1735,78 +1762,79 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>-13.30486111111111</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>251391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>50.79365079365079</v>
+        <v>91.640625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 09:07:38</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3200</v>
+        <v>5865</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1814,57 +1842,60 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
+        <v>-0.3803059895833333</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>-0.3803059895833333</v>
+      </c>
+      <c r="T18" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251547</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>184.9154929577465</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 09:07:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13129</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1895,53 +1926,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S19" t="n">
+        <v>-0.4495876736111111</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>-0.4495876736111111</v>
+      </c>
+      <c r="T19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250759</v>
+        <v>251395</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>118.2816901408451</v>
+        <v>35.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 11:06:24</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 11:06:24</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8398</v>
+        <v>2262</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1950,17 +1984,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1968,57 +2002,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
+        <v>-0.4873263888888889</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-0.4873263888888889</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250894</v>
+        <v>251396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>623.4084507042254</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 11:56:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 11:56:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-07 12:32:05</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>44262</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2027,73 +2064,78 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
+        <v>-0.5222873263888889</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>-0.5222873263888889</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251164</v>
+        <v>251548</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>204.0816326530612</v>
+        <v>206.90625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 12:32:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 12:51:05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 12:51:05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 08:18:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>10000</v>
+        <v>13242</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2106,7 +2148,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2124,53 +2166,56 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.471584467118056</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
+        <v>-1.345833333333333</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>-1.345833333333333</v>
+      </c>
+      <c r="T22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251456</v>
+        <v>250923</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>183.6530612244898</v>
+        <v>109.46875</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 08:18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 08:50:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 08:50:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 10:39:28</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8999</v>
+        <v>7006</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2179,17 +2224,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2197,57 +2242,60 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-3.300510204085648</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
+        <v>-1.444075520833333</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>-1.444075520833333</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251416</v>
+        <v>251477</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>229.0204081632653</v>
+        <v>468.734375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 10:39:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 10:47:12</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11222</v>
+        <v>29999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2256,150 +2304,156 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
+        <v>-2.449446614583333</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>-2.449446614583333</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251225</v>
+        <v>251416</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:35:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:35:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:24:01</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,14 +2462,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
         <v>39746</v>
@@ -2430,53 +2484,56 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S26" t="n">
+        <v>-3.296995464849537</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>-3.296995464849537</v>
+      </c>
+      <c r="T26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251782</v>
+        <v>251164</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>170.0422535211268</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 11:21:45</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12073</v>
+        <v>10000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,17 +2542,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,18 +2560,21 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
+        <v>-2.473441043078704</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>-2.473441043078704</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -1624,41 +1624,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>251416</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>11222</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1667,14 +1667,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>39755</v>
@@ -1687,53 +1687,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S16" t="n">
-        <v>4</v>
+      <c r="S16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251371</v>
+        <v>251456</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1746,15 +1749,13 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N17" t="n">
+        <v>39746</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1762,60 +1763,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39666</v>
+        <v>39746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-3.296995464849537</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-13.30486111111111</v>
+        <v>-3.296995464849537</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251391</v>
+        <v>251164</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>91.640625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:07:38</t>
+          <t>2025-05-09 11:21:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5865</v>
+        <v>10000</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1828,7 +1829,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1846,22 +1847,22 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.3803059895833333</v>
+        <v>-2.473441043078704</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.3803059895833333</v>
+        <v>-2.473441043078704</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1869,33 +1870,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:07:38</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1913,8 +1914,10 @@
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1922,18 +1925,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4495876736111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4495876736111111</v>
+        <v>-13.30486111111111</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1941,7 +1944,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251395</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1949,33 +1952,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>35.34375</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:06:24</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:06:24</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 09:07:38</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2262</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1988,7 +1991,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -2010,10 +2013,10 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4873263888888889</v>
+        <v>-0.3803059895833333</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.4873263888888889</v>
+        <v>-0.3803059895833333</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2021,7 +2024,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251396</v>
+        <v>251455</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2029,33 +2032,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>82.765625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 09:07:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:56:45</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:56:45</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:05</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2068,7 +2071,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2086,14 +2089,14 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5222873263888889</v>
+        <v>-0.4495876736111111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5222873263888889</v>
+        <v>-0.4495876736111111</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2101,7 +2104,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251548</v>
+        <v>251395</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2112,30 +2115,30 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:05</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-05-07 11:06:24</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-05-07 11:06:24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2148,7 +2151,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2166,14 +2169,14 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.345833333333333</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-1.345833333333333</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2181,7 +2184,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250923</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2189,33 +2192,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>109.46875</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-05-07 11:56:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-05-07 11:56:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-05-07 12:32:05</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7006</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2224,14 +2227,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
         <v>39749</v>
@@ -2246,22 +2249,22 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.444075520833333</v>
+        <v>-0.5222873263888889</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.444075520833333</v>
+        <v>-0.5222873263888889</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2272,30 +2275,30 @@
         <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>468.734375</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-05-07 12:32:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-05-07 12:51:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-05-07 12:51:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:12</t>
+          <t>2025-05-08 08:18:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2304,17 +2307,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2322,60 +2325,60 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-2.449446614583333</v>
+        <v>-1.345833333333333</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-2.449446614583333</v>
+        <v>-1.345833333333333</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251416</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>229.0204081632653</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 08:18:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 08:50:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 08:50:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 10:39:28</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11222</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2384,34 +2387,36 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-1.444075520833333</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-1.444075520833333</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
@@ -2419,41 +2424,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251456</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>183.6530612244898</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 10:39:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-09 10:47:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8999</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2462,17 +2467,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2480,18 +2485,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-3.296995464849537</v>
+        <v>-2.449446614583333</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-3.296995464849537</v>
+        <v>-2.449446614583333</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2499,41 +2504,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251164</v>
+        <v>251651</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>204.0816326530612</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:40</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:40</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>10000</v>
+        <v>46830</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2542,38 +2547,33 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>4</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251081</v>
+        <v>251050</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="D3" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -614,21 +614,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -641,15 +641,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -657,20 +655,17 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-16.40932120501157</v>
-      </c>
-      <c r="T3" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -684,29 +679,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -745,18 +740,15 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.49612676056713</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-1.49612676056713</v>
-      </c>
-      <c r="T4" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -764,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -803,13 +795,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39747</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -817,20 +811,17 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="T5" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1146,7 +1137,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251782</v>
+        <v>251225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1154,10 +1145,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1166,21 +1157,21 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1189,17 +1180,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1207,20 +1198,17 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-0.2965571204976852</v>
-      </c>
-      <c r="T10" t="n">
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="S10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,29 +1222,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1295,18 +1283,15 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-3.308362676053241</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-3.308362676053241</v>
-      </c>
-      <c r="T11" t="n">
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>251782</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1314,33 +1299,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:02</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:02</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:02</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1349,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1367,26 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.318779342719907</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-1.318779342719907</v>
-      </c>
-      <c r="T12" t="n">
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250894</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1394,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>623.4084507042254</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1406,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:24</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>44262</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1429,37 +1411,36 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1472,29 +1453,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:24</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:01:24</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:01:24</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:59:41</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1533,18 +1514,15 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.499784820034722</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-1.499784820034722</v>
-      </c>
-      <c r="T14" t="n">
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251547</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1552,33 +1530,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>184.9154929577465</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:59:41</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:41</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:41</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:36</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>13129</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1587,78 +1565,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>-5.315698356805556</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-5.315698356805556</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251416</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>229.0204081632653</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11222</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1667,14 +1640,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
         <v>39755</v>
@@ -1687,56 +1660,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
+      <c r="S16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251456</v>
+        <v>251455</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>183.6530612244898</v>
+        <v>82.765625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8999</v>
+        <v>5297</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1749,13 +1719,13 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1763,60 +1733,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-3.296995464849537</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-3.296995464849537</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="S17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251164</v>
+        <v>251391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>204.0816326530612</v>
+        <v>91.640625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:40</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:40</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>10000</v>
+        <v>5865</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1829,7 +1796,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1847,22 +1814,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251371</v>
+        <v>251395</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1870,33 +1834,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1909,15 +1873,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1925,26 +1887,23 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-13.30486111111111</v>
-      </c>
-      <c r="T19" t="n">
+        <v>-0.4741319444444445</v>
+      </c>
+      <c r="S19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251371</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1952,33 +1911,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 09:07:38</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1991,13 +1950,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2005,26 +1966,23 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.3803059895833333</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-0.3803059895833333</v>
-      </c>
-      <c r="T20" t="n">
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="S20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251455</v>
+        <v>251396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2032,33 +1990,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>82.765625</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:07:38</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5297</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2071,7 +2029,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2089,22 +2047,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4495876736111111</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-0.4495876736111111</v>
-      </c>
-      <c r="T21" t="n">
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="S21" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251395</v>
+        <v>251548</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2115,30 +2070,30 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:06:24</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:06:24</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2151,7 +2106,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2169,22 +2124,19 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4873263888888889</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-0.4873263888888889</v>
-      </c>
-      <c r="T22" t="n">
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="S22" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>250923</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2192,33 +2144,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>109.46875</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:56:45</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:56:45</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:05</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2227,14 +2179,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
         <v>39749</v>
@@ -2249,22 +2201,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5222873263888889</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>-0.5222873263888889</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7</v>
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>251477</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2275,30 +2224,30 @@
         <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>468.734375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:05</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>29999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2307,17 +2256,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2325,60 +2274,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.345833333333333</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-1.345833333333333</v>
-      </c>
-      <c r="T24" t="n">
-        <v>7</v>
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251164</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>10000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2387,14 +2333,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
         <v>39749</v>
@@ -2409,56 +2355,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.444075520833333</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>-1.444075520833333</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251456</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:12</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>8999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2467,17 +2410,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2485,60 +2428,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.449446614583333</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-2.449446614583333</v>
-      </c>
-      <c r="T26" t="n">
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251651</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>767.7049180327868</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>46830</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2547,14 +2487,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
         <v>39755</v>
@@ -2567,14 +2507,14 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -515,62 +515,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251706</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>50.79365079365079</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,15 +576,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -594,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251050</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,14 +635,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
         <v>39747</v>
@@ -659,130 +657,128 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251054</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:07:11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:47:36</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>38</v>
-      </c>
-      <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>39747</v>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251081</v>
+        <v>251225</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,19 +787,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -811,57 +805,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251284</v>
+        <v>251227</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,17 +864,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,15 +882,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -904,41 +898,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251742</v>
+        <v>251782</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>134.8524590163935</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8226</v>
+        <v>12073</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +941,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,76 +959,78 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251840</v>
+        <v>251706</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>93.67213114754098</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5714</v>
+        <v>3200</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39758</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39758</v>
+        <v>39764</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251229</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,19 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,53 +1115,53 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251225</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1180,14 +1174,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
         <v>39747</v>
@@ -1202,53 +1196,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251227</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1251,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39746</v>
+        <v>70</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,57 +1271,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251782</v>
+        <v>251742</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>170.0422535211268</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12073</v>
+        <v>8226</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1330,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,57 +1348,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251840</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>5714</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1411,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,57 +1425,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251229</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>18739</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1484,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,15 +1504,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1522,41 +1520,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>82.765625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>5297</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1565,73 +1563,75 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>251391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>91.640625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>5865</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1640,39 +1640,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251455</v>
+        <v>251395</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1680,33 +1682,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>82.765625</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5297</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,7 +1721,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1737,11 +1739,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S17" t="n">
         <v>7</v>
@@ -1749,7 +1751,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251391</v>
+        <v>251371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1757,33 +1759,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>91.640625</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1796,13 +1798,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39749</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1810,15 +1814,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1826,7 +1830,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251395</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1834,29 +1838,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
         <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1891,11 +1895,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1903,7 +1907,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251371</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1914,30 +1918,30 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1955,10 +1959,8 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N20" t="n">
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1966,15 +1968,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1982,7 +1984,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251396</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1990,33 +1992,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2025,14 +2027,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -2047,19 +2049,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251548</v>
+        <v>251477</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2070,30 +2072,30 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>206.90625</v>
+        <v>468.734375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13242</v>
+        <v>29999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,17 +2104,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2120,57 +2122,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250923</v>
+        <v>251651</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>109.46875</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7006</v>
+        <v>46830</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2179,7 +2181,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -2189,65 +2191,63 @@
         <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251477</v>
+        <v>251164</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>468.734375</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>29999</v>
+        <v>10000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2274,23 +2274,23 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251164</v>
+        <v>251456</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2298,33 +2298,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>204.0816326530612</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>10000</v>
+        <v>8999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2351,23 +2351,23 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251456</v>
+        <v>251416</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2375,33 +2375,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>183.6530612244898</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8999</v>
+        <v>11222</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2414,71 +2414,69 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>229.0204081632653</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2487,34 +2485,36 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,41 +744,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251225</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -787,17 +787,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -805,57 +805,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251227</v>
+        <v>251395</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 09:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 09:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 09:36:06</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -864,17 +867,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -882,57 +885,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
+        <v>-0.4000759548611111</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-0.4000759548611111</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251782</v>
+        <v>251391</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>170.0422535211268</v>
+        <v>91.640625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 09:36:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 09:53:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 09:53:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-07 11:24:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12073</v>
+        <v>5865</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -941,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -959,77 +965,80 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
+        <v>-0.4755208333333333</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-0.4755208333333333</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251706</v>
+        <v>251371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>50.79365079365079</v>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 11:24:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1038,57 +1047,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39764</v>
+        <v>39666</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="T8" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251396</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1109,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1127,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251548</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,17 +1189,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1192,57 +1207,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>250923</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>109.46875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>7006</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,19 +1269,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,57 +1287,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S11" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="T11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251742</v>
+        <v>251477</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>134.8524590163935</v>
+        <v>468.734375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8226</v>
+        <v>29999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1330,17 +1349,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1348,76 +1367,81 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S12" t="n">
-        <v>7</v>
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251840</v>
+        <v>251706</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>93.67213114754098</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5714</v>
+        <v>3200</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39758</v>
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1425,57 +1449,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39758</v>
+        <v>39764</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251229</v>
+        <v>251050</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="D14" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,19 +1508,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1504,57 +1526,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251455</v>
+        <v>251054</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>82.765625</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,17 +1585,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1581,57 +1603,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251391</v>
+        <v>251081</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D16" t="n">
-        <v>91.640625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5865</v>
+        <v>3012</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1640,17 +1662,19 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39749</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1658,7 +1682,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,49 +1690,49 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251395</v>
+        <v>251742</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>8226</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1721,7 +1745,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1739,11 +1763,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S17" t="n">
         <v>7</v>
@@ -1751,41 +1775,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251371</v>
+        <v>251840</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1798,15 +1822,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39758</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1814,57 +1836,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39666</v>
+        <v>39758</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251229</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>18739</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1873,7 +1895,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1882,8 +1904,10 @@
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1891,57 +1915,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251651</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>46830</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1950,75 +1974,73 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="N20" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S20" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2027,14 +2049,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -2049,53 +2071,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251477</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>468.734375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>29999</v>
+        <v>8999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2104,17 +2126,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2122,15 +2144,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2138,41 +2160,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251651</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>767.7049180327868</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>46830</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2181,14 +2203,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
         <v>39755</v>
@@ -2201,53 +2223,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251164</v>
+        <v>251225</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2256,17 +2278,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2274,57 +2296,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251456</v>
+        <v>251227</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2333,14 +2355,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
         <v>39746</v>
@@ -2355,11 +2377,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2367,41 +2389,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251416</v>
+        <v>251782</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>229.0204081632653</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11222</v>
+        <v>12073</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2410,34 +2432,36 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251984</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>20638</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,60 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7</v>
+        <v>-1.423064663020833</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>252282</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-04 13:33:19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-04 13:33:19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 14:18:12</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>2738</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +638,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +656,60 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>252084</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>641</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 14:18:12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 14:53:12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 14:53:12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-06 09:34:12</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>39101</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,73 +718,78 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
+        <v>-1.398759107465278</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-1.398759107465278</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251180</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>82.765625</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-06 09:34:12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-06 10:04:12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-06 10:04:12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-06-06 10:04:12</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -796,8 +807,10 @@
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -805,18 +818,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39887</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-17.41959244079861</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-17.41959244079861</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -824,60 +837,60 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251395</v>
+        <v>251082</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 09:00:45</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 09:00:45</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 09:36:06</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -885,26 +898,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4000759548611111</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-0.4000759548611111</v>
-      </c>
-      <c r="T6" t="n">
-        <v>7</v>
+        <v>-0.2916666666666667</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251391</v>
+        <v>251219</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,33 +922,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>91.640625</v>
+        <v>107.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 09:36:06</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 09:53:06</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 09:53:06</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:24:45</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5865</v>
+        <v>6880</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +957,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,60 +975,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4755208333333333</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-0.4755208333333333</v>
-      </c>
-      <c r="T7" t="n">
-        <v>7</v>
+        <v>-0.5996527777777778</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251371</v>
+        <v>251655</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:24:45</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>114822</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1027,19 +1034,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1047,60 +1052,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39666</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="T8" t="n">
-        <v>7</v>
+        <v>-5.442507824722222</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251070</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1109,7 +1111,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1119,7 +1121,7 @@
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1127,60 +1129,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7</v>
+        <v>-0.3170138888888889</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1189,7 +1188,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1199,7 +1198,7 @@
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1207,60 +1206,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="T10" t="n">
-        <v>7</v>
+        <v>-0.4659217171759259</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251773</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1269,17 +1265,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1287,60 +1283,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2</v>
+        <v>-0.4912689393981481</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251477</v>
+        <v>251565</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D12" t="n">
-        <v>468.734375</v>
+        <v>228.1636363636364</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-05 12:27:55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-05 12:27:55</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-06-06 08:16:05</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>29999</v>
+        <v>12549</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1349,17 +1342,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39760</v>
+        <v>39885</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1367,81 +1360,76 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39760</v>
+        <v>39885</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="T12" t="n">
+        <v>-1.344507575752315</v>
+      </c>
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251706</v>
+        <v>251752</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>50.79365079365079</v>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39846</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1449,134 +1437,140 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39764</v>
+        <v>39846</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7</v>
+        <v>-1.51485719875</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>-0.5118055555555555</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251050</v>
+        <v>251218</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
+        <v>96.90140845070422</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:17:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:38:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:38:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-06-04 14:14:54</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>6880</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="S14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>38</v>
-      </c>
-      <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
+      <c r="T14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251054</v>
+        <v>251895</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 11:02:06</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1585,17 +1579,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>39747</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1603,57 +1599,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39891</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
+        <v>-10.45980046947917</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-10.45980046947917</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251081</v>
+        <v>251362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>42.42253521126761</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 11:02:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-05 11:46:06</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-05 11:46:06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3012</v>
+        <v>2505</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1662,19 +1661,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39874</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1682,57 +1679,60 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39750</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
+        <v>-0.51485719875</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>-0.51485719875</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251742</v>
+        <v>251897</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D17" t="n">
-        <v>134.8524590163935</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8226</v>
+        <v>18607</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1741,17 +1741,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39749</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1759,57 +1761,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251840</v>
+        <v>251573</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>93.67213114754098</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5714</v>
+        <v>6203</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1818,17 +1820,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1836,15 +1838,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1852,41 +1854,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251229</v>
+        <v>251780</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>307.1967213114754</v>
+        <v>495.8979591836735</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-05 07:50:53</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>18739</v>
+        <v>24299</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1895,18 +1897,18 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39887 (esterno)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1915,57 +1917,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39723</v>
+        <v>39887</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251651</v>
+        <v>252112</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>767.7049180327868</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:50:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:30:53</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:30:53</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 12:45:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>46830</v>
+        <v>12453</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1974,73 +1976,75 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-0.5312783446759259</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251164</v>
+        <v>251631</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>204.0816326530612</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>10370</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2049,17 +2053,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2067,57 +2071,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251237</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>183.6530612244898</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>40140</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2126,17 +2130,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2144,400 +2148,17 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:12:44</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:41:45</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251225</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>19</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>76</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251227</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>15</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251782</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>17</v>
-      </c>
-      <c r="D26" t="n">
-        <v>170.0422535211268</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:51:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:51:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:41:02</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>12073</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39754</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251284</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>297.0909090909091</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:40:30</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:40:30</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:37:35</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>16340</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251984</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>338.327868852459</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>20638</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,26 +576,23 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.423064663020833</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252282</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -603,33 +600,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>44.88524590163934</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-04 13:33:19</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-04 13:33:19</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-04 14:18:12</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2738</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -648,7 +645,7 @@
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39885</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,26 +653,23 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39885</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="S3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252084</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -683,33 +677,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>641</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 14:18:12</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 14:53:12</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 14:53:12</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-06 09:34:12</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>39101</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,17 +712,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39885</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -736,60 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.398759107465278</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-1.398759107465278</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251180</v>
+        <v>251081</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-06 09:34:12</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-06 10:04:12</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-06 10:04:12</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-06 10:04:12</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,18 +791,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>39887 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -818,56 +811,56 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39887</v>
+        <v>39750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-17.41959244079861</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-17.41959244079861</v>
+        <v>-16.40932120501157</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251082</v>
+        <v>251054</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -875,22 +868,22 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>T1 ;T2 ;T8</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -898,57 +891,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S6" t="n">
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251219</v>
+        <v>251050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>107.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -957,17 +953,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -975,57 +971,60 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5996527777777778</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251655</v>
+        <v>251416</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.211267605634</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>114822</v>
+        <v>11222</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,75 +1033,76 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-5.442507824722222</v>
-      </c>
-      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251070</v>
+        <v>251456</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1111,17 +1111,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1129,57 +1129,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3170138888888889</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
+        <v>-3.296995464849537</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-3.296995464849537</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251164</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34.5</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:11:00</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:11:00</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:55</t>
+          <t>2025-05-09 11:21:45</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>10000</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1188,17 +1191,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1206,53 +1209,56 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4659217171759259</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
+        <v>-2.473441043078704</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-2.473441043078704</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251773</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:55</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1265,17 +1271,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1283,15 +1289,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4912689393981481</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1299,41 +1305,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251565</v>
+        <v>251227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>228.1636363636364</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:55</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:55</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 08:16:05</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1342,17 +1348,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1360,15 +1366,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.344507575752315</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1376,41 +1382,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251752</v>
+        <v>251782</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1429,7 +1435,7 @@
         <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39846</v>
+        <v>39754</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1437,26 +1443,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39846</v>
+        <v>39754</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.51485719875</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-0.5118055555555555</v>
-      </c>
-      <c r="T13" t="n">
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251218</v>
+        <v>251547</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1464,33 +1467,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>96.90140845070422</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6880</v>
+        <v>13129</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1499,17 +1502,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1517,26 +1520,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251895</v>
+        <v>250759</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1544,33 +1544,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>249.2112676056338</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:06</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>17694</v>
+        <v>8398</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1579,19 +1579,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1599,26 +1597,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39891</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-10.45980046947917</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-10.45980046947917</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251362</v>
+        <v>250894</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1626,33 +1621,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>35.28169014084507</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:06</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:46:06</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:46:06</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2505</v>
+        <v>44262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1661,44 +1656,39 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.51485719875</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>-0.51485719875</v>
-      </c>
-      <c r="T16" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251897</v>
+        <v>251651</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1706,33 +1696,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>305.0327868852459</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18607</v>
+        <v>46830</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1741,35 +1731,31 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -1777,41 +1763,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251573</v>
+        <v>251284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D18" t="n">
-        <v>89.89855072463769</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6203</v>
+        <v>16340</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1820,17 +1806,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1838,15 +1824,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.378401771331018</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1854,41 +1840,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251780</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>495.8979591836735</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:53</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>24299</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1901,15 +1887,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1917,57 +1901,60 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39887</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>-0.3321831597222222</v>
+      </c>
+      <c r="T19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252112</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>254.1428571428571</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:53</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 08:30:53</t>
+          <t>2025-05-07 08:15:20</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 08:30:53</t>
+          <t>2025-05-07 08:15:20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-05 12:45:02</t>
+          <t>2025-05-07 09:46:59</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12453</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1980,13 +1967,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1994,57 +1981,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5312783446759259</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
+        <v>-0.4076280381944444</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-0.4076280381944444</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251631</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>146.056338028169</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 09:46:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-07 10:39:19</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10370</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2053,17 +2043,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2071,57 +2061,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4049002347453703</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
+        <v>-0.4439778645833333</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>-0.4439778645833333</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251237</v>
+        <v>251371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>565.3521126760563</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-07 10:39:19</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-07 10:58:19</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-07 10:58:19</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-07 10:58:19</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>40140</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2130,17 +2123,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2148,18 +2143,420 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39885</v>
+        <v>39666</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.489172535208333</v>
-      </c>
-      <c r="S22" t="n">
+        <v>-13.45717230902778</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>-13.45717230902778</v>
+      </c>
+      <c r="T22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251455</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>15</v>
+      </c>
+      <c r="D23" t="n">
+        <v>82.765625</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-07 10:58:19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-07 11:13:19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-07 11:13:19</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:36:05</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>5297</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-04-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251548</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>206.90625</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:36:05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:51:05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:51:05</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:18:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>13242</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-1.345833333333333</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>-1.345833333333333</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>250923</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" t="n">
+        <v>109.46875</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:18:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:50:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:50:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:39:28</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>7006</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.444075520833333</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>-1.444075520833333</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251477</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>19</v>
+      </c>
+      <c r="D26" t="n">
+        <v>468.734375</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:39:28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:58:28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:58:28</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:47:12</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>29999</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>76</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39760</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-2.449446614583333</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>-2.449446614583333</v>
+      </c>
+      <c r="T26" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251396</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>35.34375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>2262</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -580,11 +580,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.3321831597222222</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>91.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 08:15:20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 08:15:20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 09:46:59</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.4076280381944444</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>251395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>35.34375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 09:46:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 10:39:19</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>2262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -721,10 +721,8 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +730,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4439778645833333</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251081</v>
+        <v>251371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 10:39:19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-07 10:58:19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-07 10:58:19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-07 10:58:19</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,18 +789,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -811,60 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39750</v>
+        <v>39666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-16.40932120501157</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
+        <v>-13.45717230902778</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251054</v>
+        <v>251455</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>82.765625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-07 10:58:19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-07 11:13:19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-07 11:13:19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -891,60 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.49612676056713</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-1.49612676056713</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251050</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-07 12:51:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-07 12:51:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-08 08:18:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -953,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -971,60 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
+        <v>-1.345833333333333</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251416</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>229.0204081632653</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 08:18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 08:50:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 08:50:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 10:39:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11222</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1033,76 +1022,75 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+        <v>-1.444075520833333</v>
+      </c>
+      <c r="S8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251456</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>183.6530612244898</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 10:39:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-09 10:47:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8999</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1111,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1129,60 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-3.296995464849537</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-3.296995464849537</v>
-      </c>
-      <c r="T9" t="n">
+        <v>-2.449446614583333</v>
+      </c>
+      <c r="S9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251164</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>204.0816326530612</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:40</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:40</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>10000</v>
+        <v>46830</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1191,78 +1176,73 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251225</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1271,17 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1289,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251227</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1348,7 +1328,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1358,7 +1338,7 @@
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1366,15 +1346,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1382,41 +1362,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251782</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>170.0422535211268</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12073</v>
+        <v>44262</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1425,75 +1405,73 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251547</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>184.9154929577465</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>13129</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1502,17 +1480,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1520,57 +1498,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1579,17 +1557,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1597,57 +1575,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1656,73 +1634,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251651</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>767.7049180327868</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>46830</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1731,73 +1711,77 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251284</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1806,14 +1790,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
         <v>39747</v>
@@ -1828,11 +1812,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1840,41 +1824,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1883,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1901,60 +1885,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-0.3321831597222222</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251782</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:15:20</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:15:20</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 09:46:59</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>12073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1963,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1981,60 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4076280381944444</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-0.4076280381944444</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>251416</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:46:59</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:39:19</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>11222</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2047,21 +2025,19 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2069,52 +2045,49 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4439778645833333</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-0.4439778645833333</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:39:19</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:58:19</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:58:19</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:58:19</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2127,15 +2100,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2143,60 +2114,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.45717230902778</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-13.45717230902778</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7</v>
+        <v>-3.296995464849537</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251455</v>
+        <v>251164</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>82.765625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 10:58:19</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:13:19</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:13:19</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:21:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5297</v>
+        <v>10000</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2209,7 +2177,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2227,56 +2195,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7</v>
+        <v>-2.473441043078704</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>251081</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>3012</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2285,17 +2250,19 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="N24" t="n">
-        <v>39749</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2303,60 +2270,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.345833333333333</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-1.345833333333333</v>
-      </c>
-      <c r="T24" t="n">
-        <v>7</v>
+        <v>-16.40932120501157</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2365,17 +2329,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2383,60 +2347,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.444075520833333</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>-1.444075520833333</v>
-      </c>
-      <c r="T25" t="n">
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="S25" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251050</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:12</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2445,17 +2406,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2463,21 +2424,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.449446614583333</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-2.449446614583333</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251396</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>35.34375</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2262</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3321831597222222</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>91.640625</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:15:20</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:15:20</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:46:59</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4076280381944444</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251395</v>
+        <v>251362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>35.34375</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:46:59</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:39:19</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2262</v>
+        <v>2505</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,15 +732,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4439778645833333</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -746,120 +748,118 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251371</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
+        <v>96.90140845070422</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:52:16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:13:16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:13:16</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-06-04 14:50:10</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>6880</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:39:19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:58:19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:58:19</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:58:19</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>-13.45717230902778</v>
-      </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251455</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>82.765625</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:58:19</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:13:19</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:13:19</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5297</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39749</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-10.48430164319445</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.345833333333333</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250923</v>
+        <v>251070</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D8" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1024,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,15 +1042,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.444075520833333</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1056,41 +1058,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251477</v>
+        <v>251773</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:12</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39760</v>
+        <v>39874</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,15 +1119,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39760</v>
+        <v>39874</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.449446614583333</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1133,41 +1135,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1178,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251547</v>
+        <v>251565</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>184.9154929577465</v>
+        <v>228.1636363636364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 12:19:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 12:19:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-06 08:08:05</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13129</v>
+        <v>12549</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,13 +1259,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1273,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.338952020196759</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250759</v>
+        <v>251180</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,17 +1332,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1352,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-15.3125</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250894</v>
+        <v>252282</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>623.4084507042254</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>44262</v>
+        <v>2738</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,73 +1411,75 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1480,17 +1488,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1498,23 +1506,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.497142531875</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251742</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1522,33 +1530,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>134.8524590163935</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8226</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,13 +1569,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1575,57 +1583,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.416120218576389</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251840</v>
+        <v>251631</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>93.67213114754098</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5714</v>
+        <v>10370</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1634,17 +1642,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1652,7 +1660,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1660,49 +1668,49 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251229</v>
+        <v>251237</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>307.1967213114754</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>40140</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,19 +1719,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1731,15 +1737,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1747,118 +1753,120 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251225</v>
+        <v>251780</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
+        <v>495.8979591836735</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:00:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:35:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:35:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:50:53</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>24299</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>70</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>39887</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2025-06-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251227</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 07:50:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 08:30:53</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 08:30:53</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 12:45:02</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12453</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1867,17 +1875,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1885,15 +1893,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.5312783446759259</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1901,41 +1909,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251782</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>170.0422535211268</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12073</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1944,17 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251416</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>229.0204081632653</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>11222</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,92 +2029,94 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2114,407 +2124,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-3.296995464849537</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251164</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>50</v>
-      </c>
-      <c r="D23" t="n">
-        <v>204.0816326530612</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:07:40</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:57:40</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:57:40</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:21:45</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>6</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>127</v>
-      </c>
-      <c r="D24" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:07:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:07:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:49:25</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>20</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-16.40932120501157</v>
-      </c>
-      <c r="S24" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>125</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:49:25</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>38</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-1.49612676056713</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251050</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>35</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>38</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.5467233959259259</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,23 +886,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.48430164319445</v>
+        <v>-0.2952660406828704</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,23 +965,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-10.49471830986111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251070</v>
+        <v>251500</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1001,21 +1001,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1046,11 +1046,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251773</v>
+        <v>251070</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1066,29 +1066,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,23 +1119,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-0.4631439393981481</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251773</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1143,33 +1143,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,18 +1196,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4898800505092593</v>
+        <v>-0.4857133838425925</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1220,14 +1220,14 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>40.5</v>
       </c>
       <c r="D11" t="n">
         <v>228.1636363636364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1289,7 +1289,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251180</v>
+        <v>252084</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1309,21 +1309,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>39101</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1336,15 +1336,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39885</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,15 +1350,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-15.3125</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S12" t="n">
         <v>7</v>
@@ -1368,7 +1366,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252282</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1376,33 +1374,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>44.88524590163934</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:55:00</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:55:00</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 08:39:53</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1413,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39885</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,23 +1429,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-16.43819444444444</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252084</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,33 +1453,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>641</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:39:53</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 09:14:53</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 09:14:53</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:53</t>
+          <t>2025-06-05 11:40:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>39101</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1510,14 +1510,14 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.497142531875</v>
+        <v>-0.4867258652083333</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1530,29 +1530,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:53</t>
+          <t>2025-06-05 11:40:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:20:53</t>
+          <t>2025-06-05 12:10:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:20:53</t>
+          <t>2025-06-05 12:10:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:59:12</t>
+          <t>2025-06-06 09:49:12</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.416120218576389</v>
+        <v>-1.409175774131944</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-10.48430164319445</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,18 +965,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.5467233959259259</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,23 +886,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.48430164319445</v>
+        <v>-0.2952660406828704</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,18 +965,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-10.49471830986111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-10.48430164319445</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,23 +965,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251500</v>
+        <v>251070</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D8" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1001,21 +1001,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1046,11 +1046,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251070</v>
+        <v>251773</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1066,29 +1066,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,23 +1119,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251773</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1143,33 +1143,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,18 +1196,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1220,14 +1220,14 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
         <v>228.1636363636364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1289,7 +1289,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252084</v>
+        <v>251180</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1309,21 +1309,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>39101</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1336,13 +1336,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39885</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,15 +1352,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>-15.3125</v>
       </c>
       <c r="S12" t="n">
         <v>7</v>
@@ -1366,7 +1368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251180</v>
+        <v>252282</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1374,33 +1376,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2738</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1413,15 +1415,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N13" t="n">
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,23 +1429,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-16.43819444444444</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,33 +1453,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1510,14 +1510,14 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4867258652083333</v>
+        <v>-0.497142531875</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1530,29 +1530,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
         <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>-1.416120218576389</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>82.765625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251897</v>
+        <v>251395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0327868852459</v>
+        <v>35.34375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 09:00:45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 09:00:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 09:36:06</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18607</v>
+        <v>2262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,19 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.4000759548611111</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251362</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28169014084507</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-07 09:36:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 09:53:06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 09:53:06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 11:24:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2505</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +712,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,15 +730,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4755208333333333</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -748,41 +746,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 11:24:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +789,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.48430164319445</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251500</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>179.9272727272727</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9896</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,17 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,15 +1040,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1058,41 +1056,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251070</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39885</v>
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,134 +1117,132 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251773</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
+        <v>767.7049180327868</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:16:42</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-06-05 11:06:55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-06-05 11:39:25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-06-05 11:39:25</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-06-05 11:39:25</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>7</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39874</v>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251565</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>228.1636363636364</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:19:55</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:19:55</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-06 08:08:05</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12549</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1259,13 +1255,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.338952020196759</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252084</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>641</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>39101</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,136 +1346,132 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251180</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:07:11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:47:36</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-06-05 10:01:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-06-05 10:31:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-06-05 10:31:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-06-05 10:31:00</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>39887</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2025-05-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>-16.43819444444444</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1480,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,15 +1498,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4867258652083333</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1522,7 +1514,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1533,30 +1525,30 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1569,13 +1561,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1583,57 +1575,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251631</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>146.056338028169</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10370</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1642,17 +1634,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39885</v>
+        <v>39758</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1660,7 +1652,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39885</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1668,49 +1660,49 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251237</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>565.3521126760563</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>40140</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,17 +1711,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1737,15 +1731,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1753,41 +1747,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251780</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>495.8979591836735</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:53</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>24299</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1796,19 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,57 +1808,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39887</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252112</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>254.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:53</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-05 08:30:53</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-05 08:30:53</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:45:02</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5312783446759259</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1909,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251573</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>89.89855072463769</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6203</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,113 +2021,500 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.378401771331018</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251082</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>183.6530612244898</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:19:04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251050</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>217</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251054</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39750</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>82.765625</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251395</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>35.34375</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:00:45</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:00:45</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:36:06</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2262</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4000759548611111</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251391</v>
+        <v>251362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>91.640625</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:36:06</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:53:06</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:53:06</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 11:24:45</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5865</v>
+        <v>2505</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,15 +732,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4755208333333333</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -746,120 +748,118 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251371</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
+        <v>96.90140845070422</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:52:16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:13:16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-06-04 13:13:16</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-06-04 14:50:10</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>6880</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:24:45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39749</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-10.48430164319445</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250923</v>
+        <v>251070</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D8" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1024,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,15 +1042,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1056,41 +1058,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251477</v>
+        <v>251773</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39760</v>
+        <v>39874</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,15 +1119,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39760</v>
+        <v>39874</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1133,41 +1135,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1178,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251547</v>
+        <v>251565</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>184.9154929577465</v>
+        <v>228.1636363636364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 12:19:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 12:19:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-06 08:08:05</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13129</v>
+        <v>12549</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,13 +1259,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1273,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.338952020196759</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250759</v>
+        <v>251180</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,17 +1332,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1352,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-15.3125</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250894</v>
+        <v>252282</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>623.4084507042254</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>44262</v>
+        <v>2738</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,73 +1411,75 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1480,17 +1488,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1498,23 +1506,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.497142531875</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251742</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1522,33 +1530,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>134.8524590163935</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8226</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,13 +1569,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1575,57 +1583,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.416120218576389</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251840</v>
+        <v>251631</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>93.67213114754098</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5714</v>
+        <v>10370</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1634,17 +1642,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1652,7 +1660,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1660,49 +1668,49 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251229</v>
+        <v>251237</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>307.1967213114754</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>40140</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,19 +1719,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1731,15 +1737,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1747,118 +1753,120 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251225</v>
+        <v>251780</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
+        <v>495.8979591836735</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:00:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:35:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:35:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:50:53</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>24299</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>70</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>39887</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2025-06-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251227</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 07:50:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 08:30:53</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 08:30:53</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 12:45:02</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12453</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1867,17 +1875,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1885,15 +1893,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.5312783446759259</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1901,41 +1909,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251782</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>170.0422535211268</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12073</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1944,17 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251164</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>204.0816326530612</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,76 +2047,76 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,405 +2124,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:12:44</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:41:45</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
         <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251050</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>217</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>38</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>125</v>
-      </c>
-      <c r="D26" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:59:25</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/swap_intra.xlsx
+++ b/PS-VRP/Dati_output/swap_intra.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>82.765625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251897</v>
+        <v>251395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0327868852459</v>
+        <v>35.34375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 09:00:45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 09:00:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 09:36:06</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18607</v>
+        <v>2262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,19 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.4000759548611111</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251362</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28169014084507</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-07 09:36:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 09:53:06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 09:53:06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 11:24:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2505</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +712,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,15 +730,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4755208333333333</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -748,41 +746,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 11:24:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +789,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.48430164319445</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251070</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.5</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,17 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,15 +1040,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1058,41 +1056,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251773</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39874</v>
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,15 +1117,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39874</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1135,41 +1133,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>46830</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,75 +1176,73 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>-0.4898800505092593</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251565</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>228.1636363636364</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:19:55</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:19:55</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-06 08:08:05</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12549</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1259,13 +1255,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.338952020196759</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251180</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,19 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,57 +1346,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39887</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-15.3125</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252282</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>44.88524590163934</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:55:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:55:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 08:39:53</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2738</v>
+        <v>44262</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,75 +1405,73 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252084</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>641</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:39:53</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 09:14:53</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 09:14:53</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:53</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>39101</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1480,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,23 +1498,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.497142531875</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1530,33 +1522,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:53</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:20:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:20:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:59:12</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1569,13 +1561,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1583,57 +1575,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.416120218576389</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251631</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>146.056338028169</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10370</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1642,17 +1634,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39885</v>
+        <v>39758</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1660,7 +1652,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39885</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1668,49 +1660,49 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251237</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>565.3521126760563</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>40140</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,17 +1711,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1737,15 +1731,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1753,41 +1747,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251780</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>495.8979591836735</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:53</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>24299</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1796,19 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,57 +1808,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39887</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252112</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>254.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:53</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-05 08:30:53</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-05 08:30:53</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:45:02</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5312783446759259</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1909,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251573</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>89.89855072463769</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6203</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,113 +2021,500 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.378401771331018</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251082</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>183.6530612244898</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:19:04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251050</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>217</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251054</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39750</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
